--- a/medicine/Enfance/PrincessH/PrincessH.xlsx
+++ b/medicine/Enfance/PrincessH/PrincessH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">PrincessH, nom de plume d’Hélène Prince, née en 1960 à Grenoble, est une illustratrice et autrice de bande dessinée française.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,18 +553,91 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Albums
-"Julie, Kim &amp; Théa, l'intégrale, tome 1", Lapin Éditions, octobre 2020,  (ISBN 978-2-37754-10-34))
-Apocalypse &amp; Petits biscuits, en collaboration avec Pétronille, Lapin Éditions, 2016  (ISBN 978-2-918653-66-0).
-Albums pour la jeunesse
-Une Merveilleuse Grosse Patate, textes et dessins : PrincessH, Lapin Éditions, 2017,  (ISBN 978-2-918653-90-5).
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>"Julie, Kim &amp; Théa, l'intégrale, tome 1", Lapin Éditions, octobre 2020,  (ISBN 978-2-37754-10-34))
+Apocalypse &amp; Petits biscuits, en collaboration avec Pétronille, Lapin Éditions, 2016  (ISBN 978-2-918653-66-0).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PrincessH</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PrincessH</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Albums pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Une Merveilleuse Grosse Patate, textes et dessins : PrincessH, Lapin Éditions, 2017,  (ISBN 978-2-918653-90-5).
 Un Petit Pois Tout Seul, textes et dessins : PrincessH, Lapin Éditions, 2017,  (ISBN 978-2-918653-89-9).
 Poire trop poire, textes et dessins : PrincessH, Lapin Éditions, 2018,  (ISBN 978-2-37754-011-2).
 Ceci est une noix, textes et dessins : PrincessH, Lapin Éditions, 2018,  (ISBN 978-2-37754-012-9).
 Prune &amp; Prétention, textes et dessins : PrincessH, Lapin Éditions, 2019,  (ISBN 978-2-37754-046-4).
-Une Grande Asperge, textes et dessins : PrincessH, Lapin Éditions, 2019,  (ISBN 978-2-37754-047-1).
-Illustration
-Ménopause, toi et moi, on s'explique ?!, autrices : Charlotte Attry, Brigitte Carrère, PrincessH, éditions Bamboo, 2020,  (ISBN 978-2-8189-7701-9)
+Une Grande Asperge, textes et dessins : PrincessH, Lapin Éditions, 2019,  (ISBN 978-2-37754-047-1).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PrincessH</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/PrincessH</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ménopause, toi et moi, on s'explique ?!, autrices : Charlotte Attry, Brigitte Carrère, PrincessH, éditions Bamboo, 2020,  (ISBN 978-2-8189-7701-9)
 50 aventures dans la nature que tu dois absolument faire avant 12 ans !, auteurs : Elise Darteyre et François Lenormand, éditions Plume de Carotte, 2019,  (ISBN 978-2-36672-179-9)
 En mission avec les microbes, épisode 1 : L'attaque des Virus, autrices : Ariane Melazzini, Clémence Sabbagh, éditions Le Gâteau sur la Cerise, 2018,  (ISBN 978-2-37782-010-8)
 Une petite sieste, et je me recouche !, autrice : Cindy Chapelle, éditions Plume de Carotte, 2017,  (ISBN 978-2-36672-126-3)
